--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295346.642402486</v>
+        <v>1311991.761706175</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7274346.969926829</v>
+        <v>7274346.969926828</v>
       </c>
     </row>
     <row r="11">
@@ -665,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>185.0333587736945</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>133.4067842704997</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>41.71305044180763</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>221.5616381211997</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.00235464595601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>63.4679620595638</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>167.9682457218271</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.9189633854832</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>12.25467960897382</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>119.5681194863679</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -1503,7 +1505,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>160.2043932239318</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.2952677809261</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.32604955083663</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>140.979167903347</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>102.5182133601297</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.97794495565521</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,7 +1745,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>21.38816470214935</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>140.979167903347</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -1892,16 +1894,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>118.6954547790018</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,19 +1925,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>6.71925357285062</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>130.0911502972329</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.332058976593661</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.10852146420221</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>69.01670059309973</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>43.10070109604803</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>82.77327069901865</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.78974769572874</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.06064116356384</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>83.13152374633752</v>
       </c>
       <c r="H23" t="n">
-        <v>141.6396260835082</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>12.35168551462441</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.67417889435382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.8404510156489</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>147.7617561365517</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2649,7 +2651,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -2682,7 +2684,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>31.57902637573958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W28" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>207.8791778292111</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.4009389003661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2886,10 +2888,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>54.43740208407593</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>10.63452062005134</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18.12022702288998</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.36175976093783</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>342.398952903456</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>127.7128928383624</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>81.1275227326783</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>32.10764432579385</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>214.7642598799777</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>136.0464243514814</v>
       </c>
       <c r="G36" t="n">
-        <v>120.369604185272</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>141.6396260835082</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>232.9731543976538</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>113.4883178883723</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>35.63512832829389</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33.64439241526546</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>33.64439241526546</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969025</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>141.6396260835082</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>139.5547557595294</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3822,19 +3824,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>35.214138977472</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3879,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>147.0557851781005</v>
       </c>
     </row>
     <row r="43">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>18.1202270228901</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.0990980457146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969025</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>132.7120919259119</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.58558167616638</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>104.78988958283</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>158.2525819861382</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>38.97640474817509</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>290.2572196227447</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4431,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>525.9467038763287</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W3" t="n">
-        <v>525.9467038763287</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X3" t="n">
         <v>318.0952036707959</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4512,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4595,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4680,13 +4682,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>252.1315786412141</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W6" t="n">
-        <v>252.1315786412141</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
         <v>20.03527576299844</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.33569644483418</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>90.33569644483418</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33569644483418</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>90.33569644483418</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>83.39019569563071</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>794.392260842124</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>592.2056662008901</v>
       </c>
     </row>
     <row r="10">
@@ -4984,19 +4986,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>571.3022195327464</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C11" t="n">
-        <v>571.3022195327464</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D11" t="n">
-        <v>571.3022195327464</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E11" t="n">
-        <v>571.3022195327464</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F11" t="n">
-        <v>571.3022195327464</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G11" t="n">
         <v>558.9237552812577</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1255.133762146431</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>924.0708748028607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>571.3022195327464</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>571.3022195327464</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>571.3022195327464</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>776.7454794694102</v>
+        <v>843.1255275138191</v>
       </c>
       <c r="C12" t="n">
-        <v>776.7454794694102</v>
+        <v>668.6724982326921</v>
       </c>
       <c r="D12" t="n">
-        <v>627.8110698081589</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F12" t="n">
         <v>360.5006335659854</v>
@@ -5124,19 +5126,19 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278472</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5151,19 +5153,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>1011.340864533887</v>
       </c>
       <c r="V12" t="n">
-        <v>944.9608164894781</v>
+        <v>1011.340864533887</v>
       </c>
       <c r="W12" t="n">
-        <v>944.9608164894781</v>
+        <v>1011.340864533887</v>
       </c>
       <c r="X12" t="n">
-        <v>944.9608164894781</v>
+        <v>1011.340864533887</v>
       </c>
       <c r="Y12" t="n">
-        <v>944.9608164894781</v>
+        <v>1011.340864533887</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5221,28 +5223,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="D14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="E14" t="n">
-        <v>1378.603698709343</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H14" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1425.397688154633</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U14" t="n">
-        <v>1425.397688154633</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="X14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="Y14" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>321.5470195745886</v>
+        <v>765.1725285495188</v>
       </c>
       <c r="C15" t="n">
-        <v>321.5470195745886</v>
+        <v>590.7194992683918</v>
       </c>
       <c r="D15" t="n">
-        <v>321.5470195745886</v>
+        <v>441.7850896071405</v>
       </c>
       <c r="E15" t="n">
-        <v>321.5470195745886</v>
+        <v>282.547634601685</v>
       </c>
       <c r="F15" t="n">
-        <v>321.5470195745886</v>
+        <v>136.01307662857</v>
       </c>
       <c r="G15" t="n">
-        <v>183.1346463337588</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>72.8410883412221</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>1160.042269026704</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O15" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5382,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.763620525088</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V15" t="n">
-        <v>1159.611512293345</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="W15" t="n">
-        <v>905.3741555651434</v>
+        <v>973.0240287550516</v>
       </c>
       <c r="X15" t="n">
-        <v>697.5226553596106</v>
+        <v>765.1725285495188</v>
       </c>
       <c r="Y15" t="n">
-        <v>489.7623565946566</v>
+        <v>765.1725285495188</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5461,25 +5463,25 @@
         <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="C17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="D17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="E17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5528,7 +5530,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U17" t="n">
-        <v>968.7637269953007</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="X17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="Y17" t="n">
-        <v>968.7637269953007</v>
+        <v>701.3269551836285</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>784.901795268853</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="C18" t="n">
-        <v>610.448765987726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D18" t="n">
-        <v>461.5143563264747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E18" t="n">
-        <v>302.2769013210192</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.966287987609</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W18" t="n">
-        <v>1368.728931259408</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X18" t="n">
-        <v>1160.877431053875</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y18" t="n">
-        <v>953.1171322889211</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5692,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.88564795833165</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>776.5132769647469</v>
+        <v>880.0583007416838</v>
       </c>
       <c r="C20" t="n">
-        <v>776.5132769647469</v>
+        <v>511.095783801272</v>
       </c>
       <c r="D20" t="n">
-        <v>418.2475783579964</v>
+        <v>511.095783801272</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>511.095783801272</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>101.2558120872292</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>101.2558120872292</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>101.2558120872292</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
@@ -5753,49 +5755,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011322</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U20" t="n">
-        <v>1553.25244900468</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V20" t="n">
-        <v>1553.25244900468</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W20" t="n">
-        <v>1553.25244900468</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1553.25244900468</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1163.113117028869</v>
+        <v>880.0583007416838</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466.1403226946672</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="C21" t="n">
-        <v>291.6872934135402</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="D21" t="n">
-        <v>142.7528837522889</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>142.7528837522889</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>142.7528837522889</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1539.356923645166</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1539.356923645166</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V21" t="n">
-        <v>1304.204815413424</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W21" t="n">
-        <v>1049.967458685222</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="X21" t="n">
-        <v>842.1159584796892</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="Y21" t="n">
-        <v>634.3556597147353</v>
+        <v>709.8087082577358</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="C23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="D23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="E23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="F23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="G23" t="n">
-        <v>175.5296551370332</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975219</v>
@@ -5993,46 +5995,46 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644039</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>939.1347453739247</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X23" t="n">
-        <v>565.6689871128449</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.5296551370332</v>
+        <v>642.8949913886695</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144412</v>
+        <v>1610.489837972837</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144412</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
         <v>1302.533129726572</v>
@@ -6184,13 +6186,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.549117950649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.4218427001639</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="V26" t="n">
-        <v>1400.222368368377</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="W26" t="n">
-        <v>1047.453713098263</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="X26" t="n">
-        <v>673.987954837183</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.4218427001639</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>879.3665274943975</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C27" t="n">
-        <v>704.9134982132705</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D27" t="n">
-        <v>555.9790885520192</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E27" t="n">
-        <v>396.7416335465637</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F27" t="n">
-        <v>250.2070755734487</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L27" t="n">
-        <v>256.6067387278472</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N27" t="n">
         <v>1057.709031609043</v>
@@ -6330,25 +6332,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="W27" t="n">
-        <v>1287.331371160139</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="X27" t="n">
-        <v>1079.479870954606</v>
+        <v>1138.914384614764</v>
       </c>
       <c r="Y27" t="n">
-        <v>1047.581864514465</v>
+        <v>1138.914384614764</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W28" t="n">
-        <v>1522.168563042429</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6491,22 +6493,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1412.987320483356</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919863</v>
+        <v>1159.15043741561</v>
       </c>
       <c r="V29" t="n">
-        <v>1369.129404919863</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="W29" t="n">
-        <v>1016.360749649749</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X29" t="n">
-        <v>642.8949913886693</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>491.8592862548239</v>
+        <v>965.3119837464674</v>
       </c>
       <c r="C30" t="n">
-        <v>317.4062569736969</v>
+        <v>790.8589544653404</v>
       </c>
       <c r="D30" t="n">
-        <v>317.4062569736969</v>
+        <v>641.9245448040891</v>
       </c>
       <c r="E30" t="n">
-        <v>317.4062569736969</v>
+        <v>482.6870897986336</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8716990005819</v>
+        <v>336.1525318255186</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>197.7401585846889</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>87.44660059215212</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N30" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6567,25 +6569,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1530.826787868087</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1329.92377897358</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>1329.92377897358</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V30" t="n">
-        <v>1329.92377897358</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W30" t="n">
-        <v>1075.686422245379</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X30" t="n">
-        <v>867.8349220398459</v>
+        <v>965.3119837464674</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.074623274892</v>
+        <v>965.3119837464674</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>1461.474148589836</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>1312.482271763492</v>
       </c>
       <c r="J31" t="n">
         <v>1294.179012144411</v>
@@ -6652,19 +6654,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>1548.863500350298</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433055</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3168539450613</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L32" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6725,25 +6727,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214178</v>
+        <v>1379.967723155226</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214178</v>
+        <v>1379.967723155226</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214178</v>
+        <v>1126.13084008748</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214178</v>
+        <v>795.0679527439092</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214178</v>
+        <v>442.299297473795</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214178</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214178</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="33">
@@ -6756,52 +6758,52 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
         <v>1541.019295328339</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>738.230242413013</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="C35" t="n">
-        <v>369.2677254726013</v>
+        <v>808.9452409301953</v>
       </c>
       <c r="D35" t="n">
-        <v>369.2677254726013</v>
+        <v>450.6795423234448</v>
       </c>
       <c r="E35" t="n">
-        <v>369.2677254726013</v>
+        <v>64.89128972520052</v>
       </c>
       <c r="F35" t="n">
-        <v>369.2677254726013</v>
+        <v>64.89128972520052</v>
       </c>
       <c r="G35" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T35" t="n">
-        <v>1286.226725594945</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U35" t="n">
-        <v>1069.293129756584</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V35" t="n">
-        <v>738.230242413013</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W35" t="n">
-        <v>738.230242413013</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="X35" t="n">
-        <v>738.230242413013</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="Y35" t="n">
-        <v>738.230242413013</v>
+        <v>1177.907757870607</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>154.0447845327542</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="C36" t="n">
-        <v>154.0447845327542</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="D36" t="n">
-        <v>154.0447845327542</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="E36" t="n">
-        <v>154.0447845327542</v>
+        <v>169.8799564178142</v>
       </c>
       <c r="F36" t="n">
-        <v>154.0447845327542</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
         <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7044,22 +7046,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1227.261385483253</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V36" t="n">
-        <v>992.1092772515105</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W36" t="n">
-        <v>737.871920523309</v>
+        <v>536.9689116288025</v>
       </c>
       <c r="X36" t="n">
-        <v>530.0204203177761</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="Y36" t="n">
-        <v>322.2601215528222</v>
+        <v>329.1174114232697</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7132,13 +7134,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X37" t="n">
-        <v>133.2570507049328</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.895949784888</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7181,43 +7183,43 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U38" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V38" t="n">
-        <v>1164.895949784888</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W38" t="n">
-        <v>1164.895949784888</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X38" t="n">
-        <v>1164.895949784888</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="Y38" t="n">
-        <v>1164.895949784888</v>
+        <v>175.5296551370332</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321.5470195745886</v>
+        <v>697.6138568001898</v>
       </c>
       <c r="C39" t="n">
-        <v>147.0939902934616</v>
+        <v>523.1608275190628</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>374.2264178578115</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>214.988962852356</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>68.45440487924097</v>
       </c>
       <c r="G39" t="n">
         <v>32.45932575975219</v>
@@ -7251,37 +7253,37 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>201.1187329501919</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>498.8504879318551</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668621</v>
+        <v>898.2686245361181</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U39" t="n">
         <v>1394.763620525088</v>
@@ -7290,13 +7292,13 @@
         <v>1159.611512293345</v>
       </c>
       <c r="W39" t="n">
-        <v>905.3741555651434</v>
+        <v>905.3741555651436</v>
       </c>
       <c r="X39" t="n">
-        <v>697.5226553596106</v>
+        <v>905.3741555651436</v>
       </c>
       <c r="Y39" t="n">
-        <v>489.7623565946566</v>
+        <v>697.6138568001898</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D40" t="n">
-        <v>1588.982053224715</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="E40" t="n">
-        <v>1441.068959642322</v>
+        <v>1475.053194405216</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>1328.163246907306</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
         <v>1302.533129726572</v>
@@ -7348,34 +7350,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y40" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>631.9553272824517</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="C41" t="n">
-        <v>631.9553272824517</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="D41" t="n">
-        <v>631.9553272824517</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="E41" t="n">
-        <v>631.9553272824517</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="F41" t="n">
-        <v>631.9553272824517</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1153555684087</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="I41" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521565</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011325</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528332</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941462</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N41" t="n">
-        <v>1148.836227140253</v>
+        <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
         <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.96628798761</v>
@@ -7436,25 +7438,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S41" t="n">
-        <v>1482.00188823051</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T41" t="n">
-        <v>1259.257968611277</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U41" t="n">
-        <v>1005.421085543531</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V41" t="n">
-        <v>1005.421085543531</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W41" t="n">
-        <v>1005.421085543531</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X41" t="n">
-        <v>631.9553272824517</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="Y41" t="n">
-        <v>631.9553272824517</v>
+        <v>175.5296551370332</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>468.3521269378428</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>293.8990976567158</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>293.8990976567158</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>293.8990976567158</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>147.3645396836007</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>147.3645396836007</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
         <v>61.20822116384406</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384406</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888342</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888342</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1541.568727888342</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.568727888342</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V42" t="n">
         <v>1306.416619656599</v>
       </c>
       <c r="W42" t="n">
-        <v>1052.179262928398</v>
+        <v>1306.416619656599</v>
       </c>
       <c r="X42" t="n">
-        <v>844.3277627228647</v>
+        <v>1306.416619656599</v>
       </c>
       <c r="Y42" t="n">
-        <v>636.5674639579108</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1441.31782315737</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144412</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144412</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726573</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612685</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483104</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.688437613231</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755734</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029502</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1035.258356178822</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720394</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720394</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737951</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F44" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521565</v>
+        <v>70.13987180521499</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011325</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528332</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941462</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
-        <v>1148.836227140253</v>
+        <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
         <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154634</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154634</v>
+        <v>1177.34942727422</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.397688154634</v>
+        <v>1177.34942727422</v>
       </c>
       <c r="V44" t="n">
-        <v>1425.397688154634</v>
+        <v>1177.34942727422</v>
       </c>
       <c r="W44" t="n">
-        <v>1425.397688154634</v>
+        <v>1177.34942727422</v>
       </c>
       <c r="X44" t="n">
-        <v>1425.397688154634</v>
+        <v>1177.34942727422</v>
       </c>
       <c r="Y44" t="n">
-        <v>1035.258356178822</v>
+        <v>787.2100952984081</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>666.272646544556</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="C45" t="n">
-        <v>666.272646544556</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251557</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
         <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321109</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N45" t="n">
         <v>1057.709031609044</v>
@@ -7749,28 +7751,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.96628798761</v>
+        <v>1559.748528718755</v>
       </c>
       <c r="S45" t="n">
-        <v>1455.464052945776</v>
+        <v>1559.748528718755</v>
       </c>
       <c r="T45" t="n">
-        <v>1254.561044051269</v>
+        <v>1559.748528718755</v>
       </c>
       <c r="U45" t="n">
-        <v>1026.358376588747</v>
+        <v>1331.545861256233</v>
       </c>
       <c r="V45" t="n">
-        <v>920.5100032727576</v>
+        <v>1096.39375302449</v>
       </c>
       <c r="W45" t="n">
-        <v>666.272646544556</v>
+        <v>842.1563962962887</v>
       </c>
       <c r="X45" t="n">
-        <v>666.272646544556</v>
+        <v>634.3048960907558</v>
       </c>
       <c r="Y45" t="n">
-        <v>666.272646544556</v>
+        <v>426.5445973258019</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J46" t="n">
-        <v>32.4593257597522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K46" t="n">
         <v>40.81344334191287</v>
       </c>
       <c r="L46" t="n">
-        <v>107.0302722280248</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M46" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N46" t="n">
         <v>270.968751228571</v>
       </c>
       <c r="O46" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P46" t="n">
         <v>361.2466016029502</v>
@@ -7837,19 +7839,19 @@
         <v>361.2466016029502</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029502</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029502</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029502</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>89.94082829865947</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304796</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9020,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P15" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275541</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>391.3774455544767</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>281.038292321383</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>296.5127271079358</v>
+        <v>267.4734388209742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>103.5056817990678</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
-        <v>290.4954127942447</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>174.1879045256802</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0382923213828</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>257.2956640563644</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q39" t="n">
         <v>99.7381345027554</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720743</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>351.7205150479956</v>
+        <v>63.84875129258619</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720743</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026371</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>391.3774455544772</v>
+        <v>391.3774455544765</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23264,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.0114066867786</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4588245215601</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -23312,13 +23314,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.07696096903307</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23391,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>65.7162475639648</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228691</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>335.6043205214252</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631583</v>
+        <v>273.7343362271869</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>34.51003614829179</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>38.56407785148283</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -23631,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>198.022234169704</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23744,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>273.7343362271869</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>132.6030594580666</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,19 +23813,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>165.9892454154651</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>14.97806209615095</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>157.9147621220342</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23944,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -23987,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>119.6509480463677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>182.2818136439687</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>104.3443644685907</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>116.120708106543</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.63130032720251</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3497577082895</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>331.5819803841964</v>
       </c>
       <c r="H23" t="n">
-        <v>191.8006896322124</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>134.0822771319448</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24385,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>27.18150745134362</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>116.3974876404047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>18.77142751331564</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24537,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -24579,16 +24581,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>174.1036694015648</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24622,7 +24624,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
@@ -24655,16 +24657,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W28" t="n">
-        <v>186.7332506408623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24731,22 +24733,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>12.63730259382871</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>163.8369997556875</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>24.10462072306211</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>155.1926920713644</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24853,13 +24855,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141476</v>
+        <v>56.55224943852477</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24892,10 +24894,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9428526967577</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>64.47709283825543</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>67.88002099628409</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25044,7 +25046,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>84.69968995873745</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.57939819579914</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25096,7 +25098,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25126,13 +25128,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>382.6058598047401</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25205,10 +25207,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>36.53425435709073</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,13 +25241,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>9.022788041902487</v>
       </c>
       <c r="G36" t="n">
-        <v>16.65864532314946</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>67.45707340289903</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25333,7 +25335,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6082486039198</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>241.0942155799724</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25442,22 +25444,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>94.77910407248109</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33.95674767626646</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>101.3931211801276</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>114.9710806029469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631412</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>46.11984342706174</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>56.03815807511714</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25710,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>73.97648343513936</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>58.62691059920391</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>21.57939819579914</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>149.6064425243203</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141475</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>160.1737937252929</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744808929</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>87.80438849712789</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,16 +25952,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>17.99800282210914</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>128.0106975665953</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.57939819579914</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R46" t="n">
         <v>165.4090611368575</v>
@@ -26077,13 +26079,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521248.1031271668</v>
+        <v>521248.1031271667</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521248.1031271666</v>
+        <v>521248.1031271665</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>521248.1031271668</v>
+        <v>521248.1031271666</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521248.1031271665</v>
+        <v>521248.103127167</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>521248.1031271666</v>
+        <v>521248.1031271667</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>521248.1031271667</v>
+        <v>521248.1031271669</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521248.1031271669</v>
+        <v>521248.1031271666</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>521248.1031271669</v>
+        <v>521248.103127167</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>521248.103127167</v>
+        <v>521248.1031271671</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>521248.1031271669</v>
+        <v>521248.1031271666</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="I2" t="n">
         <v>277717.5661839886</v>
@@ -26338,19 +26340,19 @@
         <v>277717.5661839886</v>
       </c>
       <c r="K2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="M2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="N2" t="n">
         <v>277717.5661839885</v>
       </c>
-      <c r="M2" t="n">
-        <v>277717.5661839885</v>
-      </c>
-      <c r="N2" t="n">
-        <v>277717.5661839884</v>
-      </c>
       <c r="O2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839882</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839886</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="F4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="G4" t="n">
         <v>51570.48828808074</v>
       </c>
       <c r="H4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="I4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="J4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="K4" t="n">
         <v>51570.48828808074</v>
       </c>
       <c r="L4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="M4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="N4" t="n">
         <v>51570.48828808074</v>
       </c>
       <c r="O4" t="n">
-        <v>51570.48828808076</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="P4" t="n">
-        <v>51570.48828808075</v>
+        <v>51570.48828808074</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26481,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
@@ -26491,19 +26493,19 @@
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375758</v>
@@ -26522,46 +26524,46 @@
         <v>75295.91855448065</v>
       </c>
       <c r="C6" t="n">
-        <v>156065.3500860286</v>
+        <v>156065.3500860284</v>
       </c>
       <c r="D6" t="n">
         <v>156065.3500860285</v>
       </c>
       <c r="E6" t="n">
-        <v>31342.55485690356</v>
+        <v>31342.55485690348</v>
       </c>
       <c r="F6" t="n">
-        <v>198282.7249821503</v>
+        <v>198282.7249821502</v>
       </c>
       <c r="G6" t="n">
         <v>198282.7249821502</v>
       </c>
       <c r="H6" t="n">
-        <v>198282.7249821502</v>
+        <v>198282.7249821503</v>
       </c>
       <c r="I6" t="n">
-        <v>198282.7249821503</v>
+        <v>198282.7249821504</v>
       </c>
       <c r="J6" t="n">
         <v>135222.7823830441</v>
       </c>
       <c r="K6" t="n">
+        <v>198282.7249821502</v>
+      </c>
+      <c r="L6" t="n">
+        <v>198282.7249821501</v>
+      </c>
+      <c r="M6" t="n">
+        <v>157232.0271197022</v>
+      </c>
+      <c r="N6" t="n">
+        <v>198282.7249821502</v>
+      </c>
+      <c r="O6" t="n">
+        <v>198282.7249821499</v>
+      </c>
+      <c r="P6" t="n">
         <v>198282.7249821503</v>
-      </c>
-      <c r="L6" t="n">
-        <v>198282.7249821502</v>
-      </c>
-      <c r="M6" t="n">
-        <v>157232.0271197023</v>
-      </c>
-      <c r="N6" t="n">
-        <v>198282.7249821501</v>
-      </c>
-      <c r="O6" t="n">
-        <v>198282.7249821503</v>
-      </c>
-      <c r="P6" t="n">
-        <v>198282.7249821502</v>
       </c>
     </row>
   </sheetData>
@@ -26756,19 +26758,19 @@
         <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="J3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="K3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="L3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="M3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="N3" t="n">
         <v>146.5718044195371</v>
@@ -26805,7 +26807,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
@@ -26817,19 +26819,19 @@
         <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969025</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7415719969025</v>
+        <v>405.7415719969024</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.8426869680169</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>99.39380287892556</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>164.0599347616698</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27555,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.1469913286911</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27630,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>356.9080190684723</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27752,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>11.23894902822553</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.6803411313483</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>351.8347754555713</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,28 +27897,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,19 +27982,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.714925382010705</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28056,7 +28058,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32722,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32740,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J26" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K26" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L26" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438474</v>
@@ -32959,16 +32961,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R26" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S26" t="n">
         <v>13.4271557515988</v>
@@ -32977,7 +32979,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33019,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O27" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P27" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,40 +33098,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I28" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L28" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M28" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O28" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R28" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S28" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I29" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J29" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L29" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438474</v>
@@ -33196,16 +33198,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R29" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S29" t="n">
         <v>13.4271557515988</v>
@@ -33214,7 +33216,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33256,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O30" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,40 +33335,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I31" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L31" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M31" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O31" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R31" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S31" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I32" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J32" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L32" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438474</v>
@@ -33433,16 +33435,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R32" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S32" t="n">
         <v>13.4271557515988</v>
@@ -33451,7 +33453,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33493,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H33" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O33" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,40 +33572,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I34" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L34" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M34" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O34" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R34" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S34" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I35" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J35" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L35" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438474</v>
@@ -33670,16 +33672,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R35" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S35" t="n">
         <v>13.4271557515988</v>
@@ -33688,7 +33690,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33730,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O36" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,40 +33809,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I37" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L37" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M37" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O37" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R37" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S37" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I41" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N41" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O41" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T41" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253947</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R42" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T42" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U42" t="n">
         <v>0.02074129307823639</v>
@@ -34278,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I43" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J43" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K43" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L43" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M43" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O43" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T43" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U43" t="n">
         <v>0.01441689879536432</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H44" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I44" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J44" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K44" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L44" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M44" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N44" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O44" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P44" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R44" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T44" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H45" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I45" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J45" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K45" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L45" t="n">
-        <v>68.45318092253947</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M45" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N45" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O45" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P45" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R45" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S45" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T45" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U45" t="n">
         <v>0.02074129307823639</v>
@@ -34515,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H46" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I46" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J46" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K46" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L46" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M46" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N46" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O46" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P46" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R46" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S46" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T46" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U46" t="n">
         <v>0.01441689879536432</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>19.83962944132475</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35507,7 +35509,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
@@ -35738,10 +35740,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P15" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680288</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>329.125045041106</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>218.7858918080124</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>110.3391532330937</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636395</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
@@ -36452,7 +36454,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>170.3630375661004</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36528,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726433</v>
@@ -36613,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>226.4115282506011</v>
+        <v>197.3722399636395</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
@@ -36689,7 +36691,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L28" t="n">
         <v>66.88568574354744</v>
@@ -36765,10 +36767,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O28" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P28" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726433</v>
@@ -36850,7 +36852,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366293</v>
+        <v>41.25328128569715</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>222.9093633908061</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L31" t="n">
         <v>66.88568574354744</v>
@@ -37002,10 +37004,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O31" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P31" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726433</v>
@@ -37087,7 +37089,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,13 +37159,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921029</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L34" t="n">
         <v>66.88568574354744</v>
@@ -37239,10 +37241,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O34" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P34" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726433</v>
@@ -37324,7 +37326,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>218.7858918080121</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,10 +37402,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L37" t="n">
         <v>66.88568574354744</v>
@@ -37476,10 +37478,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O37" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P37" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,13 +37633,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762168024</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N41" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P41" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>302.3746655144183</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37877,7 +37879,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L43" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M43" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N43" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762168024</v>
+        <v>38.0611576216796</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M45" t="n">
-        <v>329.1250450411066</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969025</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L46" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M46" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N46" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O46" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P46" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
